--- a/tabs/Contratos futuros em aberto.xlsx
+++ b/tabs/Contratos futuros em aberto.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1392">
   <si>
     <t>IE</t>
   </si>
@@ -4131,6 +4131,66 @@
   </si>
   <si>
     <t xml:space="preserve">68974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21397146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-796452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5195791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4491730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34072</t>
   </si>
 </sst>
 </file>
@@ -6247,6 +6307,32 @@
         <v>466</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -8012,6 +8098,32 @@
         <v>914</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -9777,6 +9889,32 @@
         <v>1371</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/tabs/Contratos futuros em aberto.xlsx
+++ b/tabs/Contratos futuros em aberto.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1532">
   <si>
     <t>IE</t>
   </si>
@@ -1418,6 +1418,174 @@
     <t xml:space="preserve">-1115</t>
   </si>
   <si>
+    <t xml:space="preserve">598627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">615452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">635930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12533</t>
+  </si>
+  <si>
     <t xml:space="preserve">636642</t>
   </si>
   <si>
@@ -1472,9 +1640,6 @@
     <t xml:space="preserve">1673</t>
   </si>
   <si>
-    <t xml:space="preserve">420</t>
-  </si>
-  <si>
     <t xml:space="preserve">7073</t>
   </si>
   <si>
@@ -2762,6 +2927,165 @@
     <t xml:space="preserve">-16239</t>
   </si>
   <si>
+    <t xml:space="preserve">519656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">514331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">509335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5529</t>
+  </si>
+  <si>
     <t xml:space="preserve">24970555</t>
   </si>
   <si>
@@ -4133,48 +4457,6 @@
     <t xml:space="preserve">68974</t>
   </si>
   <si>
-    <t xml:space="preserve">598627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5591</t>
-  </si>
-  <si>
     <t xml:space="preserve">21397146</t>
   </si>
   <si>
@@ -4191,6 +4473,144 @@
   </si>
   <si>
     <t xml:space="preserve">-34072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21454808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-775087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5210735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4532290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21595557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-780599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5334545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4652235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21642781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-809136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5363350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4644615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21899964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-840291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5574071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4825070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22102699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-879834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5724315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4927718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22412563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1067403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5779491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4792983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-187569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23149087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1595026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6343336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4828628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-527623</t>
   </si>
 </sst>
 </file>
@@ -4551,8 +4971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -6285,25 +6705,25 @@
       <c r="A67" s="2" t="n">
         <v>43985</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6311,26 +6731,208 @@
       <c r="A68" s="2" t="n">
         <v>43986</v>
       </c>
-      <c r="B68" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1378</v>
+      <c r="B68" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B75" t="s">
+        <v>516</v>
+      </c>
+      <c r="C75" t="s">
+        <v>517</v>
+      </c>
+      <c r="D75" t="s">
+        <v>518</v>
+      </c>
+      <c r="E75" t="s">
+        <v>519</v>
+      </c>
+      <c r="F75" t="s">
+        <v>520</v>
+      </c>
+      <c r="G75" t="s">
+        <v>521</v>
+      </c>
+      <c r="H75" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -6343,8 +6945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -6389,22 +6991,22 @@
         <v>43889</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="H2"/>
     </row>
@@ -6413,25 +7015,25 @@
         <v>43892</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4">
@@ -6439,25 +7041,25 @@
         <v>43893</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5">
@@ -6465,25 +7067,25 @@
         <v>43894</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
@@ -6491,25 +7093,25 @@
         <v>43895</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7">
@@ -6517,25 +7119,25 @@
         <v>43896</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8">
@@ -6543,25 +7145,25 @@
         <v>43899</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
@@ -6569,25 +7171,25 @@
         <v>43900</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -6595,25 +7197,25 @@
         <v>43901</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>524</v>
+        <v>579</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>527</v>
+        <v>582</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>528</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11">
@@ -6621,25 +7223,25 @@
         <v>43902</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>534</v>
+        <v>589</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12">
@@ -6647,25 +7249,25 @@
         <v>43903</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>537</v>
+        <v>592</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>540</v>
+        <v>595</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>542</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13">
@@ -6673,25 +7275,25 @@
         <v>43906</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>544</v>
+        <v>599</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>545</v>
+        <v>600</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>546</v>
+        <v>601</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>547</v>
+        <v>602</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>400</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>548</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14">
@@ -6699,25 +7301,25 @@
         <v>43907</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>549</v>
+        <v>604</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>552</v>
+        <v>607</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>554</v>
+        <v>609</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>555</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15">
@@ -6725,25 +7327,25 @@
         <v>43908</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>557</v>
+        <v>612</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>559</v>
+        <v>614</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>561</v>
+        <v>616</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>562</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16">
@@ -6751,25 +7353,25 @@
         <v>43909</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>563</v>
+        <v>618</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>564</v>
+        <v>619</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>565</v>
+        <v>620</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>566</v>
+        <v>621</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>568</v>
+        <v>623</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>569</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17">
@@ -6777,25 +7379,25 @@
         <v>43910</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>570</v>
+        <v>625</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>571</v>
+        <v>626</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>573</v>
+        <v>628</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>576</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18">
@@ -6803,25 +7405,25 @@
         <v>43913</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>577</v>
+        <v>632</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>582</v>
+        <v>637</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>583</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19">
@@ -6829,25 +7431,25 @@
         <v>43914</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>585</v>
+        <v>640</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>587</v>
+        <v>642</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>588</v>
+        <v>643</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>590</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20">
@@ -6855,25 +7457,25 @@
         <v>43915</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>591</v>
+        <v>646</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>592</v>
+        <v>647</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>593</v>
+        <v>648</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>594</v>
+        <v>649</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>595</v>
+        <v>650</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>596</v>
+        <v>651</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>597</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21">
@@ -6881,25 +7483,25 @@
         <v>43916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>602</v>
+        <v>657</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>603</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22">
@@ -6907,25 +7509,25 @@
         <v>43917</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>604</v>
+        <v>659</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>610</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23">
@@ -6933,25 +7535,25 @@
         <v>43920</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>612</v>
+        <v>667</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>613</v>
+        <v>668</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>614</v>
+        <v>669</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>615</v>
+        <v>670</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>616</v>
+        <v>671</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>617</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24">
@@ -6959,25 +7561,25 @@
         <v>43921</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>620</v>
+        <v>675</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25">
@@ -6985,25 +7587,25 @@
         <v>43922</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26">
@@ -7011,25 +7613,25 @@
         <v>43923</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>631</v>
+        <v>686</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>632</v>
+        <v>687</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>637</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27">
@@ -7037,25 +7639,25 @@
         <v>43924</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>640</v>
+        <v>695</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>642</v>
+        <v>697</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28">
@@ -7063,25 +7665,25 @@
         <v>43927</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>647</v>
+        <v>702</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>648</v>
+        <v>703</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>651</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29">
@@ -7089,25 +7691,25 @@
         <v>43928</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30">
@@ -7115,25 +7717,25 @@
         <v>43929</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>659</v>
+        <v>714</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31">
@@ -7141,25 +7743,25 @@
         <v>43930</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>666</v>
+        <v>721</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
     </row>
     <row r="32">
@@ -7167,25 +7769,25 @@
         <v>43934</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33">
@@ -7193,25 +7795,25 @@
         <v>43935</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>685</v>
+        <v>740</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>686</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34">
@@ -7219,25 +7821,25 @@
         <v>43936</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>691</v>
+        <v>746</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>582</v>
+        <v>637</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35">
@@ -7245,25 +7847,25 @@
         <v>43937</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>696</v>
+        <v>751</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>697</v>
+        <v>752</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>698</v>
+        <v>753</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>699</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36">
@@ -7271,25 +7873,25 @@
         <v>43938</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>704</v>
+        <v>759</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37">
@@ -7297,25 +7899,25 @@
         <v>43941</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>707</v>
+        <v>762</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>711</v>
+        <v>766</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>712</v>
+        <v>767</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>713</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38">
@@ -7323,25 +7925,25 @@
         <v>43943</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>715</v>
+        <v>770</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>720</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39">
@@ -7349,25 +7951,25 @@
         <v>43944</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>722</v>
+        <v>777</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>723</v>
+        <v>778</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>727</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40">
@@ -7375,25 +7977,25 @@
         <v>43945</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>729</v>
+        <v>784</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>730</v>
+        <v>785</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>731</v>
+        <v>786</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>732</v>
+        <v>787</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>733</v>
+        <v>788</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>734</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41">
@@ -7401,25 +8003,25 @@
         <v>43948</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>735</v>
+        <v>790</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>736</v>
+        <v>791</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>737</v>
+        <v>792</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>739</v>
+        <v>794</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>740</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42">
@@ -7427,25 +8029,25 @@
         <v>43949</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>741</v>
+        <v>796</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>742</v>
+        <v>797</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>743</v>
+        <v>798</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>744</v>
+        <v>799</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>745</v>
+        <v>800</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
     </row>
     <row r="43">
@@ -7453,25 +8055,25 @@
         <v>43950</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>748</v>
+        <v>803</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>749</v>
+        <v>804</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>750</v>
+        <v>805</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>751</v>
+        <v>806</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>752</v>
+        <v>807</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>753</v>
+        <v>808</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>754</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44">
@@ -7479,25 +8081,25 @@
         <v>43951</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>755</v>
+        <v>810</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>756</v>
+        <v>811</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>757</v>
+        <v>812</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>758</v>
+        <v>813</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>759</v>
+        <v>814</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>760</v>
+        <v>815</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>761</v>
+        <v>816</v>
       </c>
     </row>
     <row r="45">
@@ -7505,25 +8107,25 @@
         <v>43955</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>762</v>
+        <v>817</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>763</v>
+        <v>818</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>764</v>
+        <v>819</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>765</v>
+        <v>820</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>766</v>
+        <v>821</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>767</v>
+        <v>822</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>768</v>
+        <v>823</v>
       </c>
     </row>
     <row r="46">
@@ -7531,25 +8133,25 @@
         <v>43956</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>769</v>
+        <v>824</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>771</v>
+        <v>826</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>773</v>
+        <v>828</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>775</v>
+        <v>830</v>
       </c>
     </row>
     <row r="47">
@@ -7557,25 +8159,25 @@
         <v>43957</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>776</v>
+        <v>831</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>777</v>
+        <v>832</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>779</v>
+        <v>834</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>780</v>
+        <v>835</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>781</v>
+        <v>836</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>782</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48">
@@ -7583,25 +8185,25 @@
         <v>43958</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>783</v>
+        <v>838</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>784</v>
+        <v>839</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>785</v>
+        <v>840</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>786</v>
+        <v>841</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>787</v>
+        <v>842</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>788</v>
+        <v>843</v>
       </c>
     </row>
     <row r="49">
@@ -7609,25 +8211,25 @@
         <v>43959</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>789</v>
+        <v>844</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>790</v>
+        <v>845</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>791</v>
+        <v>846</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>792</v>
+        <v>847</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>787</v>
+        <v>842</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>793</v>
+        <v>848</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>794</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50">
@@ -7635,25 +8237,25 @@
         <v>43962</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>795</v>
+        <v>850</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>796</v>
+        <v>851</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>797</v>
+        <v>852</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>798</v>
+        <v>853</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>799</v>
+        <v>854</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>800</v>
+        <v>855</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>801</v>
+        <v>856</v>
       </c>
     </row>
     <row r="51">
@@ -7661,25 +8263,25 @@
         <v>43963</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>802</v>
+        <v>857</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>803</v>
+        <v>858</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>804</v>
+        <v>859</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>807</v>
+        <v>862</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>808</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52">
@@ -7687,25 +8289,25 @@
         <v>43964</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>809</v>
+        <v>864</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>810</v>
+        <v>865</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>811</v>
+        <v>866</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>812</v>
+        <v>867</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>813</v>
+        <v>868</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>814</v>
+        <v>869</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>815</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53">
@@ -7713,25 +8315,25 @@
         <v>43965</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>816</v>
+        <v>871</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>817</v>
+        <v>872</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>818</v>
+        <v>873</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>819</v>
+        <v>874</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>798</v>
+        <v>853</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>820</v>
+        <v>875</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54">
@@ -7739,25 +8341,25 @@
         <v>43966</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>822</v>
+        <v>877</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>823</v>
+        <v>878</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>824</v>
+        <v>879</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>825</v>
+        <v>880</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>826</v>
+        <v>881</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>799</v>
+        <v>854</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>827</v>
+        <v>882</v>
       </c>
     </row>
     <row r="55">
@@ -7765,25 +8367,25 @@
         <v>43969</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>828</v>
+        <v>883</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>829</v>
+        <v>884</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>830</v>
+        <v>885</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>831</v>
+        <v>886</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>832</v>
+        <v>887</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>833</v>
+        <v>888</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>834</v>
+        <v>889</v>
       </c>
     </row>
     <row r="56">
@@ -7791,25 +8393,25 @@
         <v>43970</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>835</v>
+        <v>890</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>836</v>
+        <v>891</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>837</v>
+        <v>892</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>838</v>
+        <v>893</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>839</v>
+        <v>894</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>840</v>
+        <v>895</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>841</v>
+        <v>896</v>
       </c>
     </row>
     <row r="57">
@@ -7817,25 +8419,25 @@
         <v>43971</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>842</v>
+        <v>897</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>843</v>
+        <v>898</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>844</v>
+        <v>899</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>845</v>
+        <v>900</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>846</v>
+        <v>901</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>847</v>
+        <v>902</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>848</v>
+        <v>903</v>
       </c>
     </row>
     <row r="58">
@@ -7843,25 +8445,25 @@
         <v>43972</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>849</v>
+        <v>904</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>850</v>
+        <v>905</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>852</v>
+        <v>907</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>854</v>
+        <v>909</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>855</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59">
@@ -7869,25 +8471,25 @@
         <v>43973</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>856</v>
+        <v>911</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>857</v>
+        <v>912</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>858</v>
+        <v>913</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>799</v>
+        <v>854</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>859</v>
+        <v>914</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>860</v>
+        <v>915</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>861</v>
+        <v>916</v>
       </c>
     </row>
     <row r="60">
@@ -7895,25 +8497,25 @@
         <v>43976</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>862</v>
+        <v>917</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>863</v>
+        <v>918</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>864</v>
+        <v>919</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>866</v>
+        <v>921</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>867</v>
+        <v>922</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>868</v>
+        <v>923</v>
       </c>
     </row>
     <row r="61">
@@ -7921,25 +8523,25 @@
         <v>43977</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>869</v>
+        <v>924</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>870</v>
+        <v>925</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>871</v>
+        <v>926</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>872</v>
+        <v>927</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>873</v>
+        <v>928</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>874</v>
+        <v>929</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>875</v>
+        <v>930</v>
       </c>
     </row>
     <row r="62">
@@ -7947,25 +8549,25 @@
         <v>43978</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>876</v>
+        <v>931</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>877</v>
+        <v>932</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>878</v>
+        <v>933</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>879</v>
+        <v>934</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>880</v>
+        <v>935</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>881</v>
+        <v>936</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>882</v>
+        <v>937</v>
       </c>
     </row>
     <row r="63">
@@ -7973,25 +8575,25 @@
         <v>43979</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>883</v>
+        <v>938</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>884</v>
+        <v>939</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>885</v>
+        <v>940</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>886</v>
+        <v>941</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>887</v>
+        <v>942</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>860</v>
+        <v>915</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>888</v>
+        <v>943</v>
       </c>
     </row>
     <row r="64">
@@ -7999,25 +8601,25 @@
         <v>43980</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>890</v>
+        <v>945</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>891</v>
+        <v>946</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>892</v>
+        <v>947</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>893</v>
+        <v>948</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>894</v>
+        <v>949</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>895</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65">
@@ -8025,25 +8627,25 @@
         <v>43983</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>896</v>
+        <v>951</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>897</v>
+        <v>952</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>898</v>
+        <v>953</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>899</v>
+        <v>954</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>900</v>
+        <v>955</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>901</v>
+        <v>956</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>902</v>
+        <v>957</v>
       </c>
     </row>
     <row r="66">
@@ -8051,77 +8653,259 @@
         <v>43984</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>903</v>
+        <v>958</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>904</v>
+        <v>959</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>905</v>
+        <v>960</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>416</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>906</v>
+        <v>961</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>907</v>
+        <v>962</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
         <v>43985</v>
       </c>
-      <c r="B67" t="s">
-        <v>908</v>
-      </c>
-      <c r="C67" t="s">
-        <v>909</v>
-      </c>
-      <c r="D67" t="s">
-        <v>910</v>
-      </c>
-      <c r="E67" t="s">
-        <v>911</v>
-      </c>
-      <c r="F67" t="s">
-        <v>912</v>
-      </c>
-      <c r="G67" t="s">
-        <v>913</v>
-      </c>
-      <c r="H67" t="s">
-        <v>914</v>
+      <c r="B67" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
         <v>43986</v>
       </c>
-      <c r="B68" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1383</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1385</v>
+      <c r="B68" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -8134,8 +8918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -8180,22 +8964,22 @@
         <v>43889</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>915</v>
+        <v>1023</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>916</v>
+        <v>1024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>917</v>
+        <v>1025</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>918</v>
+        <v>1026</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>919</v>
+        <v>1027</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>920</v>
+        <v>1028</v>
       </c>
       <c r="H2"/>
     </row>
@@ -8204,25 +8988,25 @@
         <v>43892</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>921</v>
+        <v>1029</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>922</v>
+        <v>1030</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>923</v>
+        <v>1031</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>924</v>
+        <v>1032</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>925</v>
+        <v>1033</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>926</v>
+        <v>1034</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>927</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4">
@@ -8230,25 +9014,25 @@
         <v>43893</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>928</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>929</v>
+        <v>1037</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>930</v>
+        <v>1038</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>931</v>
+        <v>1039</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>932</v>
+        <v>1040</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>933</v>
+        <v>1041</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>934</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5">
@@ -8256,25 +9040,25 @@
         <v>43894</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>935</v>
+        <v>1043</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>936</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>937</v>
+        <v>1045</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>938</v>
+        <v>1046</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>939</v>
+        <v>1047</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>940</v>
+        <v>1048</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>941</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6">
@@ -8282,25 +9066,25 @@
         <v>43895</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>942</v>
+        <v>1050</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>943</v>
+        <v>1051</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>944</v>
+        <v>1052</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>945</v>
+        <v>1053</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>946</v>
+        <v>1054</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>947</v>
+        <v>1055</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>948</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="7">
@@ -8308,25 +9092,25 @@
         <v>43896</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>949</v>
+        <v>1057</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>950</v>
+        <v>1058</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>951</v>
+        <v>1059</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>952</v>
+        <v>1060</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>953</v>
+        <v>1061</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>954</v>
+        <v>1062</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>955</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="8">
@@ -8334,25 +9118,25 @@
         <v>43899</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>956</v>
+        <v>1064</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>957</v>
+        <v>1065</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>958</v>
+        <v>1066</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>959</v>
+        <v>1067</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>960</v>
+        <v>1068</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>961</v>
+        <v>1069</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>962</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="9">
@@ -8360,25 +9144,25 @@
         <v>43900</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>963</v>
+        <v>1071</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>964</v>
+        <v>1072</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>965</v>
+        <v>1073</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>966</v>
+        <v>1074</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>967</v>
+        <v>1075</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>968</v>
+        <v>1076</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>969</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="10">
@@ -8386,25 +9170,25 @@
         <v>43901</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>970</v>
+        <v>1078</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>971</v>
+        <v>1079</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>972</v>
+        <v>1080</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>973</v>
+        <v>1081</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>974</v>
+        <v>1082</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>975</v>
+        <v>1083</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>976</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11">
@@ -8412,25 +9196,25 @@
         <v>43902</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>977</v>
+        <v>1085</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>978</v>
+        <v>1086</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>979</v>
+        <v>1087</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>980</v>
+        <v>1088</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>981</v>
+        <v>1089</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>982</v>
+        <v>1090</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>983</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12">
@@ -8438,25 +9222,25 @@
         <v>43903</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>984</v>
+        <v>1092</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>985</v>
+        <v>1093</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>986</v>
+        <v>1094</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>987</v>
+        <v>1095</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>988</v>
+        <v>1096</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>989</v>
+        <v>1097</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>990</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="13">
@@ -8464,25 +9248,25 @@
         <v>43906</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>991</v>
+        <v>1099</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>992</v>
+        <v>1100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>993</v>
+        <v>1101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>994</v>
+        <v>1102</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>995</v>
+        <v>1103</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>996</v>
+        <v>1104</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>997</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14">
@@ -8490,25 +9274,25 @@
         <v>43907</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>998</v>
+        <v>1106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>999</v>
+        <v>1107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1000</v>
+        <v>1108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1001</v>
+        <v>1109</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1002</v>
+        <v>1110</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1003</v>
+        <v>1111</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1004</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15">
@@ -8516,25 +9300,25 @@
         <v>43908</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1005</v>
+        <v>1113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1006</v>
+        <v>1114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1007</v>
+        <v>1115</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1008</v>
+        <v>1116</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1009</v>
+        <v>1117</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1010</v>
+        <v>1118</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1011</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="16">
@@ -8542,25 +9326,25 @@
         <v>43909</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1012</v>
+        <v>1120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1013</v>
+        <v>1121</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1014</v>
+        <v>1122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1015</v>
+        <v>1123</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1016</v>
+        <v>1124</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1017</v>
+        <v>1125</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1018</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="17">
@@ -8568,25 +9352,25 @@
         <v>43910</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1019</v>
+        <v>1127</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1020</v>
+        <v>1128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1021</v>
+        <v>1129</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1022</v>
+        <v>1130</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1023</v>
+        <v>1131</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1024</v>
+        <v>1132</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1025</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18">
@@ -8594,25 +9378,25 @@
         <v>43913</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1026</v>
+        <v>1134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1027</v>
+        <v>1135</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1028</v>
+        <v>1136</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1029</v>
+        <v>1137</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1030</v>
+        <v>1138</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1031</v>
+        <v>1139</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1032</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="19">
@@ -8620,25 +9404,25 @@
         <v>43914</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1033</v>
+        <v>1141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1034</v>
+        <v>1142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1035</v>
+        <v>1143</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1036</v>
+        <v>1144</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1037</v>
+        <v>1145</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1038</v>
+        <v>1146</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1039</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="20">
@@ -8646,25 +9430,25 @@
         <v>43915</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1040</v>
+        <v>1148</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1041</v>
+        <v>1149</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1042</v>
+        <v>1150</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1043</v>
+        <v>1151</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1044</v>
+        <v>1152</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1045</v>
+        <v>1153</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1046</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="21">
@@ -8672,25 +9456,25 @@
         <v>43916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1047</v>
+        <v>1155</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1048</v>
+        <v>1156</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1049</v>
+        <v>1157</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1050</v>
+        <v>1158</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1051</v>
+        <v>1159</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1052</v>
+        <v>1160</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1053</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="22">
@@ -8698,25 +9482,25 @@
         <v>43917</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1054</v>
+        <v>1162</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1055</v>
+        <v>1163</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1056</v>
+        <v>1164</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1057</v>
+        <v>1165</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1058</v>
+        <v>1166</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1059</v>
+        <v>1167</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1060</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23">
@@ -8724,25 +9508,25 @@
         <v>43920</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1061</v>
+        <v>1169</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1062</v>
+        <v>1170</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1063</v>
+        <v>1171</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1064</v>
+        <v>1172</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1065</v>
+        <v>1173</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1066</v>
+        <v>1174</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1067</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="24">
@@ -8750,25 +9534,25 @@
         <v>43921</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1068</v>
+        <v>1176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1069</v>
+        <v>1177</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1070</v>
+        <v>1178</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1071</v>
+        <v>1179</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1072</v>
+        <v>1180</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1073</v>
+        <v>1181</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1074</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="25">
@@ -8776,25 +9560,25 @@
         <v>43922</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1075</v>
+        <v>1183</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1076</v>
+        <v>1184</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1077</v>
+        <v>1185</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1078</v>
+        <v>1186</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1079</v>
+        <v>1187</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1080</v>
+        <v>1188</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1081</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="26">
@@ -8802,25 +9586,25 @@
         <v>43923</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1082</v>
+        <v>1190</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1083</v>
+        <v>1191</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1084</v>
+        <v>1192</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1085</v>
+        <v>1193</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1086</v>
+        <v>1194</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1087</v>
+        <v>1195</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1088</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="27">
@@ -8828,25 +9612,25 @@
         <v>43924</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1089</v>
+        <v>1197</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1090</v>
+        <v>1198</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1091</v>
+        <v>1199</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1092</v>
+        <v>1200</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1093</v>
+        <v>1201</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1094</v>
+        <v>1202</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1095</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="28">
@@ -8854,25 +9638,25 @@
         <v>43927</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1096</v>
+        <v>1204</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1097</v>
+        <v>1205</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1098</v>
+        <v>1206</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1099</v>
+        <v>1207</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1100</v>
+        <v>1208</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1101</v>
+        <v>1209</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1102</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="29">
@@ -8880,25 +9664,25 @@
         <v>43928</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1103</v>
+        <v>1211</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1104</v>
+        <v>1212</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1105</v>
+        <v>1213</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1106</v>
+        <v>1214</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1107</v>
+        <v>1215</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1108</v>
+        <v>1216</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1109</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="30">
@@ -8906,25 +9690,25 @@
         <v>43929</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1110</v>
+        <v>1218</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1111</v>
+        <v>1219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1112</v>
+        <v>1220</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1113</v>
+        <v>1221</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1114</v>
+        <v>1222</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1115</v>
+        <v>1223</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1116</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="31">
@@ -8932,22 +9716,22 @@
         <v>43930</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1117</v>
+        <v>1225</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1118</v>
+        <v>1226</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1119</v>
+        <v>1227</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1120</v>
+        <v>1228</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1121</v>
+        <v>1229</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1122</v>
+        <v>1230</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>342</v>
@@ -8958,25 +9742,25 @@
         <v>43934</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1123</v>
+        <v>1231</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1124</v>
+        <v>1232</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1125</v>
+        <v>1233</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1126</v>
+        <v>1234</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1127</v>
+        <v>1235</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1128</v>
+        <v>1236</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1129</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="33">
@@ -8984,25 +9768,25 @@
         <v>43935</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1130</v>
+        <v>1238</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1131</v>
+        <v>1239</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1132</v>
+        <v>1240</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1133</v>
+        <v>1241</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1134</v>
+        <v>1242</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1135</v>
+        <v>1243</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1136</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="34">
@@ -9010,25 +9794,25 @@
         <v>43936</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1137</v>
+        <v>1245</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1138</v>
+        <v>1246</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1139</v>
+        <v>1247</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1140</v>
+        <v>1248</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1141</v>
+        <v>1249</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1142</v>
+        <v>1250</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1143</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="35">
@@ -9036,25 +9820,25 @@
         <v>43937</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1144</v>
+        <v>1252</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1145</v>
+        <v>1253</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1146</v>
+        <v>1254</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1147</v>
+        <v>1255</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1148</v>
+        <v>1256</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1149</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="36">
@@ -9062,25 +9846,25 @@
         <v>43938</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1150</v>
+        <v>1258</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1151</v>
+        <v>1259</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1152</v>
+        <v>1260</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1153</v>
+        <v>1261</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1154</v>
+        <v>1262</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1155</v>
+        <v>1263</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1156</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="37">
@@ -9088,25 +9872,25 @@
         <v>43941</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1157</v>
+        <v>1265</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1158</v>
+        <v>1266</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1159</v>
+        <v>1267</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1160</v>
+        <v>1268</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1161</v>
+        <v>1269</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1162</v>
+        <v>1270</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1163</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="38">
@@ -9114,25 +9898,25 @@
         <v>43943</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1164</v>
+        <v>1272</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1165</v>
+        <v>1273</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1166</v>
+        <v>1274</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1167</v>
+        <v>1275</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1168</v>
+        <v>1276</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1169</v>
+        <v>1277</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1170</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="39">
@@ -9140,25 +9924,25 @@
         <v>43944</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1171</v>
+        <v>1279</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1172</v>
+        <v>1280</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1173</v>
+        <v>1281</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1174</v>
+        <v>1282</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1175</v>
+        <v>1283</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1176</v>
+        <v>1284</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1177</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="40">
@@ -9166,25 +9950,25 @@
         <v>43945</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1178</v>
+        <v>1286</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1179</v>
+        <v>1287</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1180</v>
+        <v>1288</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1181</v>
+        <v>1289</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1182</v>
+        <v>1290</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1183</v>
+        <v>1291</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1184</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="41">
@@ -9192,25 +9976,25 @@
         <v>43948</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1185</v>
+        <v>1293</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1186</v>
+        <v>1294</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1187</v>
+        <v>1295</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1188</v>
+        <v>1296</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1189</v>
+        <v>1297</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1190</v>
+        <v>1298</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1191</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="42">
@@ -9218,25 +10002,25 @@
         <v>43949</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1192</v>
+        <v>1300</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1193</v>
+        <v>1301</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1194</v>
+        <v>1302</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1195</v>
+        <v>1303</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1196</v>
+        <v>1304</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1198</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="43">
@@ -9244,25 +10028,25 @@
         <v>43950</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1199</v>
+        <v>1307</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1200</v>
+        <v>1308</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1201</v>
+        <v>1309</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1202</v>
+        <v>1310</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1203</v>
+        <v>1311</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1205</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="44">
@@ -9270,25 +10054,25 @@
         <v>43951</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1206</v>
+        <v>1314</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1207</v>
+        <v>1315</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1208</v>
+        <v>1316</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1209</v>
+        <v>1317</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1210</v>
+        <v>1318</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1211</v>
+        <v>1319</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1212</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="45">
@@ -9296,25 +10080,25 @@
         <v>43955</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1213</v>
+        <v>1321</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1214</v>
+        <v>1322</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1215</v>
+        <v>1323</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1216</v>
+        <v>1324</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1217</v>
+        <v>1325</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1218</v>
+        <v>1326</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1219</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="46">
@@ -9322,25 +10106,25 @@
         <v>43956</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1220</v>
+        <v>1328</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1221</v>
+        <v>1329</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1222</v>
+        <v>1330</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1223</v>
+        <v>1331</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1224</v>
+        <v>1332</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1225</v>
+        <v>1333</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1226</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="47">
@@ -9348,25 +10132,25 @@
         <v>43957</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1227</v>
+        <v>1335</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1228</v>
+        <v>1336</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1229</v>
+        <v>1337</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1230</v>
+        <v>1338</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1231</v>
+        <v>1339</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1232</v>
+        <v>1340</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1233</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="48">
@@ -9374,25 +10158,25 @@
         <v>43958</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1234</v>
+        <v>1342</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1235</v>
+        <v>1343</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1236</v>
+        <v>1344</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1237</v>
+        <v>1345</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1238</v>
+        <v>1346</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1239</v>
+        <v>1347</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1240</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="49">
@@ -9400,25 +10184,25 @@
         <v>43959</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1241</v>
+        <v>1349</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1242</v>
+        <v>1350</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1243</v>
+        <v>1351</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1244</v>
+        <v>1352</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1245</v>
+        <v>1353</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1101</v>
+        <v>1209</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1246</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="50">
@@ -9426,25 +10210,25 @@
         <v>43962</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1247</v>
+        <v>1355</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1248</v>
+        <v>1356</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1249</v>
+        <v>1357</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1250</v>
+        <v>1358</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1251</v>
+        <v>1359</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1252</v>
+        <v>1360</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1253</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="51">
@@ -9452,25 +10236,25 @@
         <v>43963</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1254</v>
+        <v>1362</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1255</v>
+        <v>1363</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1256</v>
+        <v>1364</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1257</v>
+        <v>1365</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1258</v>
+        <v>1366</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1259</v>
+        <v>1367</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1260</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="52">
@@ -9478,25 +10262,25 @@
         <v>43964</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1261</v>
+        <v>1369</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1262</v>
+        <v>1370</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1263</v>
+        <v>1371</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1264</v>
+        <v>1372</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1265</v>
+        <v>1373</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1266</v>
+        <v>1374</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1267</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="53">
@@ -9504,25 +10288,25 @@
         <v>43965</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1268</v>
+        <v>1376</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1269</v>
+        <v>1377</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1270</v>
+        <v>1378</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1271</v>
+        <v>1379</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1272</v>
+        <v>1380</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1273</v>
+        <v>1381</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1274</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="54">
@@ -9530,25 +10314,25 @@
         <v>43966</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1275</v>
+        <v>1383</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1276</v>
+        <v>1384</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1277</v>
+        <v>1385</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1278</v>
+        <v>1386</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1279</v>
+        <v>1387</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1280</v>
+        <v>1388</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1281</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="55">
@@ -9556,25 +10340,25 @@
         <v>43969</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1282</v>
+        <v>1390</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1283</v>
+        <v>1391</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1284</v>
+        <v>1392</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1285</v>
+        <v>1393</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1286</v>
+        <v>1394</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1287</v>
+        <v>1395</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1288</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="56">
@@ -9582,25 +10366,25 @@
         <v>43970</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1289</v>
+        <v>1397</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1290</v>
+        <v>1398</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1291</v>
+        <v>1399</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1292</v>
+        <v>1400</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1293</v>
+        <v>1401</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1294</v>
+        <v>1402</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1295</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="57">
@@ -9608,25 +10392,25 @@
         <v>43971</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1296</v>
+        <v>1404</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1297</v>
+        <v>1405</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1298</v>
+        <v>1406</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1299</v>
+        <v>1407</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1300</v>
+        <v>1408</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1301</v>
+        <v>1409</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1302</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="58">
@@ -9634,25 +10418,25 @@
         <v>43972</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1303</v>
+        <v>1411</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1304</v>
+        <v>1412</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1305</v>
+        <v>1413</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1306</v>
+        <v>1414</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1307</v>
+        <v>1415</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1308</v>
+        <v>1416</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1309</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="59">
@@ -9660,25 +10444,25 @@
         <v>43973</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1310</v>
+        <v>1418</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1311</v>
+        <v>1419</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1312</v>
+        <v>1420</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1313</v>
+        <v>1421</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1314</v>
+        <v>1422</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1315</v>
+        <v>1423</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1316</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="60">
@@ -9686,25 +10470,25 @@
         <v>43976</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1317</v>
+        <v>1425</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1318</v>
+        <v>1426</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1319</v>
+        <v>1427</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1320</v>
+        <v>1428</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1321</v>
+        <v>1429</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1322</v>
+        <v>1430</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1323</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="61">
@@ -9712,25 +10496,25 @@
         <v>43977</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1324</v>
+        <v>1432</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1325</v>
+        <v>1433</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1326</v>
+        <v>1434</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1327</v>
+        <v>1435</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1328</v>
+        <v>1436</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1329</v>
+        <v>1437</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1330</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="62">
@@ -9738,25 +10522,25 @@
         <v>43978</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1331</v>
+        <v>1439</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1332</v>
+        <v>1440</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1333</v>
+        <v>1441</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1334</v>
+        <v>1442</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1335</v>
+        <v>1443</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1336</v>
+        <v>1444</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1337</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="63">
@@ -9764,25 +10548,25 @@
         <v>43979</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1338</v>
+        <v>1446</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1339</v>
+        <v>1447</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1340</v>
+        <v>1448</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1341</v>
+        <v>1449</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1342</v>
+        <v>1450</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1343</v>
+        <v>1451</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1344</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="64">
@@ -9790,25 +10574,25 @@
         <v>43980</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1345</v>
+        <v>1453</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1346</v>
+        <v>1454</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1347</v>
+        <v>1455</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1348</v>
+        <v>1456</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1349</v>
+        <v>1457</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1350</v>
+        <v>1458</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1351</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="65">
@@ -9816,25 +10600,25 @@
         <v>43983</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1352</v>
+        <v>1460</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1353</v>
+        <v>1461</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1354</v>
+        <v>1462</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1355</v>
+        <v>1463</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1356</v>
+        <v>1464</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1357</v>
+        <v>1465</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1358</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="66">
@@ -9842,77 +10626,259 @@
         <v>43984</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1359</v>
+        <v>1467</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1360</v>
+        <v>1468</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1361</v>
+        <v>1469</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1362</v>
+        <v>1470</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1363</v>
+        <v>1471</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>416</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1364</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
         <v>43985</v>
       </c>
-      <c r="B67" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G67" t="s">
-        <v>1370</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1371</v>
+      <c r="B67" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
         <v>43986</v>
       </c>
-      <c r="B68" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1391</v>
+      <c r="B68" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1531</v>
       </c>
     </row>
   </sheetData>

--- a/tabs/Contratos futuros em aberto.xlsx
+++ b/tabs/Contratos futuros em aberto.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1573">
   <si>
     <t>IE</t>
   </si>
@@ -1586,6 +1586,48 @@
     <t xml:space="preserve">-12533</t>
   </si>
   <si>
+    <t xml:space="preserve">679917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">686130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4287</t>
+  </si>
+  <si>
     <t xml:space="preserve">636642</t>
   </si>
   <si>
@@ -3086,6 +3128,45 @@
     <t xml:space="preserve">-5529</t>
   </si>
   <si>
+    <t xml:space="preserve">439799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1367</t>
+  </si>
+  <si>
     <t xml:space="preserve">24970555</t>
   </si>
   <si>
@@ -4611,6 +4692,48 @@
   </si>
   <si>
     <t xml:space="preserve">-527623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23865588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1849716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6671723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4904758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-254690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24036148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1620225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6512313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4968123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229491</t>
   </si>
 </sst>
 </file>
@@ -4971,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -6913,26 +7036,78 @@
       <c r="A75" s="2" t="n">
         <v>43998</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="1" t="s">
         <v>522</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>530</v>
+      </c>
+      <c r="C77" t="s">
+        <v>531</v>
+      </c>
+      <c r="D77" t="s">
+        <v>532</v>
+      </c>
+      <c r="E77" t="s">
+        <v>533</v>
+      </c>
+      <c r="F77" t="s">
+        <v>534</v>
+      </c>
+      <c r="G77" t="s">
+        <v>535</v>
+      </c>
+      <c r="H77" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6945,8 +7120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -6991,22 +7166,22 @@
         <v>43889</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="H2"/>
     </row>
@@ -7015,25 +7190,25 @@
         <v>43892</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4">
@@ -7041,25 +7216,25 @@
         <v>43893</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>493</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5">
@@ -7067,25 +7242,25 @@
         <v>43894</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6">
@@ -7093,25 +7268,25 @@
         <v>43895</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7">
@@ -7119,25 +7294,25 @@
         <v>43896</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8">
@@ -7145,25 +7320,25 @@
         <v>43899</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9">
@@ -7171,25 +7346,25 @@
         <v>43900</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10">
@@ -7197,25 +7372,25 @@
         <v>43901</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11">
@@ -7223,25 +7398,25 @@
         <v>43902</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
@@ -7249,25 +7424,25 @@
         <v>43903</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13">
@@ -7275,25 +7450,25 @@
         <v>43906</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>400</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14">
@@ -7301,25 +7476,25 @@
         <v>43907</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15">
@@ -7327,25 +7502,25 @@
         <v>43908</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16">
@@ -7353,25 +7528,25 @@
         <v>43909</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17">
@@ -7379,25 +7554,25 @@
         <v>43910</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18">
@@ -7405,25 +7580,25 @@
         <v>43913</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19">
@@ -7431,25 +7606,25 @@
         <v>43914</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20">
@@ -7457,25 +7632,25 @@
         <v>43915</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21">
@@ -7483,25 +7658,25 @@
         <v>43916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22">
@@ -7509,25 +7684,25 @@
         <v>43917</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23">
@@ -7535,25 +7710,25 @@
         <v>43920</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24">
@@ -7561,25 +7736,25 @@
         <v>43921</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25">
@@ -7587,25 +7762,25 @@
         <v>43922</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26">
@@ -7613,25 +7788,25 @@
         <v>43923</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27">
@@ -7639,25 +7814,25 @@
         <v>43924</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28">
@@ -7665,25 +7840,25 @@
         <v>43927</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29">
@@ -7691,25 +7866,25 @@
         <v>43928</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30">
@@ -7717,25 +7892,25 @@
         <v>43929</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31">
@@ -7743,25 +7918,25 @@
         <v>43930</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32">
@@ -7769,25 +7944,25 @@
         <v>43934</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33">
@@ -7795,25 +7970,25 @@
         <v>43935</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34">
@@ -7821,25 +7996,25 @@
         <v>43936</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35">
@@ -7847,25 +8022,25 @@
         <v>43937</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36">
@@ -7873,25 +8048,25 @@
         <v>43938</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
     </row>
     <row r="37">
@@ -7899,25 +8074,25 @@
         <v>43941</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38">
@@ -7925,25 +8100,25 @@
         <v>43943</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
     </row>
     <row r="39">
@@ -7951,25 +8126,25 @@
         <v>43944</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40">
@@ -7977,25 +8152,25 @@
         <v>43945</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41">
@@ -8003,25 +8178,25 @@
         <v>43948</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42">
@@ -8029,25 +8204,25 @@
         <v>43949</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43">
@@ -8055,25 +8230,25 @@
         <v>43950</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
     </row>
     <row r="44">
@@ -8081,25 +8256,25 @@
         <v>43951</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45">
@@ -8107,25 +8282,25 @@
         <v>43955</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46">
@@ -8133,25 +8308,25 @@
         <v>43956</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
     </row>
     <row r="47">
@@ -8159,25 +8334,25 @@
         <v>43957</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
     </row>
     <row r="48">
@@ -8185,25 +8360,25 @@
         <v>43958</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="49">
@@ -8211,25 +8386,25 @@
         <v>43959</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
     </row>
     <row r="50">
@@ -8237,25 +8412,25 @@
         <v>43962</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51">
@@ -8263,25 +8438,25 @@
         <v>43963</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
     </row>
     <row r="52">
@@ -8289,25 +8464,25 @@
         <v>43964</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53">
@@ -8315,25 +8490,25 @@
         <v>43965</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
     </row>
     <row r="54">
@@ -8341,25 +8516,25 @@
         <v>43966</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55">
@@ -8367,25 +8542,25 @@
         <v>43969</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="56">
@@ -8393,25 +8568,25 @@
         <v>43970</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57">
@@ -8419,25 +8594,25 @@
         <v>43971</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="58">
@@ -8445,25 +8620,25 @@
         <v>43972</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="59">
@@ -8471,25 +8646,25 @@
         <v>43973</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
     </row>
     <row r="60">
@@ -8497,25 +8672,25 @@
         <v>43976</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="61">
@@ -8523,25 +8698,25 @@
         <v>43977</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="62">
@@ -8549,25 +8724,25 @@
         <v>43978</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="63">
@@ -8575,25 +8750,25 @@
         <v>43979</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
     </row>
     <row r="64">
@@ -8601,25 +8776,25 @@
         <v>43980</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65">
@@ -8627,25 +8802,25 @@
         <v>43983</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
     </row>
     <row r="66">
@@ -8653,25 +8828,25 @@
         <v>43984</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>416</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
     </row>
     <row r="67">
@@ -8679,25 +8854,25 @@
         <v>43985</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>964</v>
+        <v>978</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>967</v>
+        <v>981</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>969</v>
+        <v>983</v>
       </c>
     </row>
     <row r="68">
@@ -8705,25 +8880,25 @@
         <v>43986</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>970</v>
+        <v>984</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>971</v>
+        <v>985</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>972</v>
+        <v>986</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>973</v>
+        <v>987</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>974</v>
+        <v>988</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>976</v>
+        <v>990</v>
       </c>
     </row>
     <row r="69">
@@ -8731,25 +8906,25 @@
         <v>43987</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
     </row>
     <row r="70">
@@ -8757,25 +8932,25 @@
         <v>43990</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="71">
@@ -8783,25 +8958,25 @@
         <v>43991</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="72">
@@ -8809,25 +8984,25 @@
         <v>43992</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="73">
@@ -8835,25 +9010,25 @@
         <v>43994</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="74">
@@ -8861,51 +9036,103 @@
         <v>43997</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1015</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
         <v>43998</v>
       </c>
-      <c r="B75" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G75" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H75" t="s">
-        <v>1022</v>
+      <c r="B75" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E77" t="s">
+        <v>541</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -8918,8 +9145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="0" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -8964,22 +9191,22 @@
         <v>43889</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1023</v>
+        <v>1050</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1024</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1025</v>
+        <v>1052</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1026</v>
+        <v>1053</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1027</v>
+        <v>1054</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="H2"/>
     </row>
@@ -8988,25 +9215,25 @@
         <v>43892</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1029</v>
+        <v>1056</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1030</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1031</v>
+        <v>1058</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1032</v>
+        <v>1059</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1033</v>
+        <v>1060</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1034</v>
+        <v>1061</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1035</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4">
@@ -9014,25 +9241,25 @@
         <v>43893</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1036</v>
+        <v>1063</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1037</v>
+        <v>1064</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1038</v>
+        <v>1065</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1039</v>
+        <v>1066</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1040</v>
+        <v>1067</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1041</v>
+        <v>1068</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1042</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5">
@@ -9040,25 +9267,25 @@
         <v>43894</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1043</v>
+        <v>1070</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1044</v>
+        <v>1071</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1048</v>
+        <v>1075</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1049</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6">
@@ -9066,25 +9293,25 @@
         <v>43895</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1050</v>
+        <v>1077</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1051</v>
+        <v>1078</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1052</v>
+        <v>1079</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1053</v>
+        <v>1080</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1054</v>
+        <v>1081</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1055</v>
+        <v>1082</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1056</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="7">
@@ -9092,25 +9319,25 @@
         <v>43896</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1057</v>
+        <v>1084</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1058</v>
+        <v>1085</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1059</v>
+        <v>1086</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1060</v>
+        <v>1087</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1061</v>
+        <v>1088</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1062</v>
+        <v>1089</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1063</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8">
@@ -9118,25 +9345,25 @@
         <v>43899</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1064</v>
+        <v>1091</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1065</v>
+        <v>1092</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1066</v>
+        <v>1093</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1067</v>
+        <v>1094</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1068</v>
+        <v>1095</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1069</v>
+        <v>1096</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1070</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9">
@@ -9144,25 +9371,25 @@
         <v>43900</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1071</v>
+        <v>1098</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1072</v>
+        <v>1099</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1073</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1074</v>
+        <v>1101</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1075</v>
+        <v>1102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1076</v>
+        <v>1103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="10">
@@ -9170,25 +9397,25 @@
         <v>43901</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1078</v>
+        <v>1105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1079</v>
+        <v>1106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1081</v>
+        <v>1108</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1082</v>
+        <v>1109</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1083</v>
+        <v>1110</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1084</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="11">
@@ -9196,25 +9423,25 @@
         <v>43902</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1085</v>
+        <v>1112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1086</v>
+        <v>1113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1087</v>
+        <v>1114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1088</v>
+        <v>1115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1089</v>
+        <v>1116</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1090</v>
+        <v>1117</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1091</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12">
@@ -9222,25 +9449,25 @@
         <v>43903</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1092</v>
+        <v>1119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1093</v>
+        <v>1120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1094</v>
+        <v>1121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1095</v>
+        <v>1122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1096</v>
+        <v>1123</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1097</v>
+        <v>1124</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1098</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13">
@@ -9248,25 +9475,25 @@
         <v>43906</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1099</v>
+        <v>1126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1100</v>
+        <v>1127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1101</v>
+        <v>1128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1102</v>
+        <v>1129</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1103</v>
+        <v>1130</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1104</v>
+        <v>1131</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1105</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14">
@@ -9274,25 +9501,25 @@
         <v>43907</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1106</v>
+        <v>1133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1107</v>
+        <v>1134</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1109</v>
+        <v>1136</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1110</v>
+        <v>1137</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1111</v>
+        <v>1138</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1112</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="15">
@@ -9300,25 +9527,25 @@
         <v>43908</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1114</v>
+        <v>1141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1115</v>
+        <v>1142</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1116</v>
+        <v>1143</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1117</v>
+        <v>1144</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1118</v>
+        <v>1145</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1119</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="16">
@@ -9326,25 +9553,25 @@
         <v>43909</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1120</v>
+        <v>1147</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1121</v>
+        <v>1148</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1122</v>
+        <v>1149</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1123</v>
+        <v>1150</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1124</v>
+        <v>1151</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1125</v>
+        <v>1152</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1126</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="17">
@@ -9352,25 +9579,25 @@
         <v>43910</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1127</v>
+        <v>1154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1128</v>
+        <v>1155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1129</v>
+        <v>1156</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1130</v>
+        <v>1157</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1131</v>
+        <v>1158</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1132</v>
+        <v>1159</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1133</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="18">
@@ -9378,25 +9605,25 @@
         <v>43913</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1134</v>
+        <v>1161</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1135</v>
+        <v>1162</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1136</v>
+        <v>1163</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1137</v>
+        <v>1164</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1138</v>
+        <v>1165</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1139</v>
+        <v>1166</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1140</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="19">
@@ -9404,25 +9631,25 @@
         <v>43914</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1141</v>
+        <v>1168</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1142</v>
+        <v>1169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1143</v>
+        <v>1170</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1144</v>
+        <v>1171</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1145</v>
+        <v>1172</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1146</v>
+        <v>1173</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1147</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="20">
@@ -9430,25 +9657,25 @@
         <v>43915</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1148</v>
+        <v>1175</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1149</v>
+        <v>1176</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1150</v>
+        <v>1177</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1151</v>
+        <v>1178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1152</v>
+        <v>1179</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1153</v>
+        <v>1180</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="21">
@@ -9456,25 +9683,25 @@
         <v>43916</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1155</v>
+        <v>1182</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1156</v>
+        <v>1183</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1157</v>
+        <v>1184</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1158</v>
+        <v>1185</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1159</v>
+        <v>1186</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1160</v>
+        <v>1187</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1161</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="22">
@@ -9482,25 +9709,25 @@
         <v>43917</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1162</v>
+        <v>1189</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1163</v>
+        <v>1190</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1164</v>
+        <v>1191</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1165</v>
+        <v>1192</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1166</v>
+        <v>1193</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1167</v>
+        <v>1194</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1168</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="23">
@@ -9508,25 +9735,25 @@
         <v>43920</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1169</v>
+        <v>1196</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1170</v>
+        <v>1197</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1171</v>
+        <v>1198</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1172</v>
+        <v>1199</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1173</v>
+        <v>1200</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1174</v>
+        <v>1201</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1175</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="24">
@@ -9534,25 +9761,25 @@
         <v>43921</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1176</v>
+        <v>1203</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1177</v>
+        <v>1204</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1178</v>
+        <v>1205</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1179</v>
+        <v>1206</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1180</v>
+        <v>1207</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1181</v>
+        <v>1208</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1182</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="25">
@@ -9560,25 +9787,25 @@
         <v>43922</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1183</v>
+        <v>1210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1184</v>
+        <v>1211</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1185</v>
+        <v>1212</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1186</v>
+        <v>1213</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1187</v>
+        <v>1214</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1188</v>
+        <v>1215</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1189</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="26">
@@ -9586,25 +9813,25 @@
         <v>43923</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1190</v>
+        <v>1217</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1191</v>
+        <v>1218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1192</v>
+        <v>1219</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1193</v>
+        <v>1220</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1194</v>
+        <v>1221</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1195</v>
+        <v>1222</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1196</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="27">
@@ -9612,25 +9839,25 @@
         <v>43924</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1197</v>
+        <v>1224</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1198</v>
+        <v>1225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1199</v>
+        <v>1226</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1200</v>
+        <v>1227</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1201</v>
+        <v>1228</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1202</v>
+        <v>1229</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1203</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="28">
@@ -9638,25 +9865,25 @@
         <v>43927</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1204</v>
+        <v>1231</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1205</v>
+        <v>1232</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1206</v>
+        <v>1233</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1207</v>
+        <v>1234</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1208</v>
+        <v>1235</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1209</v>
+        <v>1236</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1210</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="29">
@@ -9664,25 +9891,25 @@
         <v>43928</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1211</v>
+        <v>1238</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1212</v>
+        <v>1239</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1213</v>
+        <v>1240</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1214</v>
+        <v>1241</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1215</v>
+        <v>1242</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1216</v>
+        <v>1243</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1217</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="30">
@@ -9690,25 +9917,25 @@
         <v>43929</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1218</v>
+        <v>1245</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1219</v>
+        <v>1246</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1220</v>
+        <v>1247</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1221</v>
+        <v>1248</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1222</v>
+        <v>1249</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1223</v>
+        <v>1250</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1224</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="31">
@@ -9716,22 +9943,22 @@
         <v>43930</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1225</v>
+        <v>1252</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1226</v>
+        <v>1253</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1227</v>
+        <v>1254</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1228</v>
+        <v>1255</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1229</v>
+        <v>1256</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1230</v>
+        <v>1257</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>342</v>
@@ -9742,25 +9969,25 @@
         <v>43934</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1231</v>
+        <v>1258</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1232</v>
+        <v>1259</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1233</v>
+        <v>1260</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1234</v>
+        <v>1261</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1235</v>
+        <v>1262</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1236</v>
+        <v>1263</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1237</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33">
@@ -9768,25 +9995,25 @@
         <v>43935</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1238</v>
+        <v>1265</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1239</v>
+        <v>1266</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1240</v>
+        <v>1267</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1241</v>
+        <v>1268</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1242</v>
+        <v>1269</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1243</v>
+        <v>1270</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1244</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="34">
@@ -9794,25 +10021,25 @@
         <v>43936</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1245</v>
+        <v>1272</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1246</v>
+        <v>1273</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1247</v>
+        <v>1274</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1248</v>
+        <v>1275</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1249</v>
+        <v>1276</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1250</v>
+        <v>1277</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1251</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="35">
@@ -9820,25 +10047,25 @@
         <v>43937</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1252</v>
+        <v>1279</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1253</v>
+        <v>1280</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1254</v>
+        <v>1281</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1255</v>
+        <v>1282</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1256</v>
+        <v>1283</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1257</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="36">
@@ -9846,25 +10073,25 @@
         <v>43938</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1258</v>
+        <v>1285</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1259</v>
+        <v>1286</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1260</v>
+        <v>1287</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1261</v>
+        <v>1288</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1262</v>
+        <v>1289</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1263</v>
+        <v>1290</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1264</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="37">
@@ -9872,25 +10099,25 @@
         <v>43941</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1265</v>
+        <v>1292</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1266</v>
+        <v>1293</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1267</v>
+        <v>1294</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1268</v>
+        <v>1295</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1269</v>
+        <v>1296</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1270</v>
+        <v>1297</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1271</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="38">
@@ -9898,25 +10125,25 @@
         <v>43943</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1272</v>
+        <v>1299</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1273</v>
+        <v>1300</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1274</v>
+        <v>1301</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1275</v>
+        <v>1302</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1276</v>
+        <v>1303</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1277</v>
+        <v>1304</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1278</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="39">
@@ -9924,25 +10151,25 @@
         <v>43944</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1279</v>
+        <v>1306</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1280</v>
+        <v>1307</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1281</v>
+        <v>1308</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1282</v>
+        <v>1309</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1283</v>
+        <v>1310</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1284</v>
+        <v>1311</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1285</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="40">
@@ -9950,25 +10177,25 @@
         <v>43945</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1286</v>
+        <v>1313</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1287</v>
+        <v>1314</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1288</v>
+        <v>1315</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1289</v>
+        <v>1316</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1290</v>
+        <v>1317</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1291</v>
+        <v>1318</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1292</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="41">
@@ -9976,25 +10203,25 @@
         <v>43948</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1293</v>
+        <v>1320</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1294</v>
+        <v>1321</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1295</v>
+        <v>1322</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1296</v>
+        <v>1323</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1297</v>
+        <v>1324</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1298</v>
+        <v>1325</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1299</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="42">
@@ -10002,25 +10229,25 @@
         <v>43949</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1300</v>
+        <v>1327</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1301</v>
+        <v>1328</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1302</v>
+        <v>1329</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1303</v>
+        <v>1330</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1304</v>
+        <v>1331</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1305</v>
+        <v>1332</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1306</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="43">
@@ -10028,25 +10255,25 @@
         <v>43950</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1307</v>
+        <v>1334</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1308</v>
+        <v>1335</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1309</v>
+        <v>1336</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1310</v>
+        <v>1337</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1312</v>
+        <v>1339</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1313</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="44">
@@ -10054,25 +10281,25 @@
         <v>43951</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1314</v>
+        <v>1341</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1315</v>
+        <v>1342</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1316</v>
+        <v>1343</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1317</v>
+        <v>1344</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1318</v>
+        <v>1345</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1319</v>
+        <v>1346</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1320</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="45">
@@ -10080,25 +10307,25 @@
         <v>43955</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1321</v>
+        <v>1348</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1322</v>
+        <v>1349</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1323</v>
+        <v>1350</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1324</v>
+        <v>1351</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1325</v>
+        <v>1352</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1326</v>
+        <v>1353</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1327</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="46">
@@ -10106,25 +10333,25 @@
         <v>43956</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1328</v>
+        <v>1355</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1329</v>
+        <v>1356</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1330</v>
+        <v>1357</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1331</v>
+        <v>1358</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1332</v>
+        <v>1359</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1333</v>
+        <v>1360</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1334</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="47">
@@ -10132,25 +10359,25 @@
         <v>43957</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1335</v>
+        <v>1362</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1336</v>
+        <v>1363</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1338</v>
+        <v>1365</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1340</v>
+        <v>1367</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1341</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="48">
@@ -10158,25 +10385,25 @@
         <v>43958</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1342</v>
+        <v>1369</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1343</v>
+        <v>1370</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1344</v>
+        <v>1371</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1345</v>
+        <v>1372</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1346</v>
+        <v>1373</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1347</v>
+        <v>1374</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1348</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="49">
@@ -10184,25 +10411,25 @@
         <v>43959</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1349</v>
+        <v>1376</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1350</v>
+        <v>1377</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1351</v>
+        <v>1378</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1352</v>
+        <v>1379</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1353</v>
+        <v>1380</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1209</v>
+        <v>1236</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1354</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="50">
@@ -10210,25 +10437,25 @@
         <v>43962</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1355</v>
+        <v>1382</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1356</v>
+        <v>1383</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1357</v>
+        <v>1384</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1358</v>
+        <v>1385</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1359</v>
+        <v>1386</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1360</v>
+        <v>1387</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1361</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="51">
@@ -10236,25 +10463,25 @@
         <v>43963</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1362</v>
+        <v>1389</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1363</v>
+        <v>1390</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1364</v>
+        <v>1391</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1365</v>
+        <v>1392</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1366</v>
+        <v>1393</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1367</v>
+        <v>1394</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1368</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="52">
@@ -10262,25 +10489,25 @@
         <v>43964</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1369</v>
+        <v>1396</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1370</v>
+        <v>1397</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1371</v>
+        <v>1398</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1372</v>
+        <v>1399</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1373</v>
+        <v>1400</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1374</v>
+        <v>1401</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1375</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="53">
@@ -10288,25 +10515,25 @@
         <v>43965</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1376</v>
+        <v>1403</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1377</v>
+        <v>1404</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1378</v>
+        <v>1405</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1379</v>
+        <v>1406</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1380</v>
+        <v>1407</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1381</v>
+        <v>1408</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1382</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="54">
@@ -10314,25 +10541,25 @@
         <v>43966</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1383</v>
+        <v>1410</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1384</v>
+        <v>1411</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1385</v>
+        <v>1412</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1386</v>
+        <v>1413</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1387</v>
+        <v>1414</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1388</v>
+        <v>1415</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1389</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="55">
@@ -10340,25 +10567,25 @@
         <v>43969</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1390</v>
+        <v>1417</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1391</v>
+        <v>1418</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1392</v>
+        <v>1419</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1393</v>
+        <v>1420</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1394</v>
+        <v>1421</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1395</v>
+        <v>1422</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1396</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="56">
@@ -10366,25 +10593,25 @@
         <v>43970</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1398</v>
+        <v>1425</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1399</v>
+        <v>1426</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1400</v>
+        <v>1427</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1401</v>
+        <v>1428</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1402</v>
+        <v>1429</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1403</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="57">
@@ -10392,25 +10619,25 @@
         <v>43971</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1404</v>
+        <v>1431</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1405</v>
+        <v>1432</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1406</v>
+        <v>1433</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1407</v>
+        <v>1434</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1408</v>
+        <v>1435</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1409</v>
+        <v>1436</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1410</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="58">
@@ -10418,25 +10645,25 @@
         <v>43972</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1411</v>
+        <v>1438</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1412</v>
+        <v>1439</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1413</v>
+        <v>1440</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1414</v>
+        <v>1441</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1415</v>
+        <v>1442</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1416</v>
+        <v>1443</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1417</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="59">
@@ -10444,25 +10671,25 @@
         <v>43973</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1418</v>
+        <v>1445</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1419</v>
+        <v>1446</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1420</v>
+        <v>1447</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1421</v>
+        <v>1448</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1422</v>
+        <v>1449</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1423</v>
+        <v>1450</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1424</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="60">
@@ -10470,25 +10697,25 @@
         <v>43976</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1425</v>
+        <v>1452</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1426</v>
+        <v>1453</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1427</v>
+        <v>1454</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1428</v>
+        <v>1455</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1429</v>
+        <v>1456</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1430</v>
+        <v>1457</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1431</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="61">
@@ -10496,25 +10723,25 @@
         <v>43977</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1432</v>
+        <v>1459</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1433</v>
+        <v>1460</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1434</v>
+        <v>1461</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1435</v>
+        <v>1462</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1436</v>
+        <v>1463</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1437</v>
+        <v>1464</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1438</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="62">
@@ -10522,25 +10749,25 @@
         <v>43978</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1439</v>
+        <v>1466</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1440</v>
+        <v>1467</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1441</v>
+        <v>1468</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1442</v>
+        <v>1469</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1443</v>
+        <v>1470</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1444</v>
+        <v>1471</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1445</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="63">
@@ -10548,25 +10775,25 @@
         <v>43979</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1446</v>
+        <v>1473</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1447</v>
+        <v>1474</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1448</v>
+        <v>1475</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1449</v>
+        <v>1476</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1450</v>
+        <v>1477</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1451</v>
+        <v>1478</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1452</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="64">
@@ -10574,25 +10801,25 @@
         <v>43980</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1453</v>
+        <v>1480</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1454</v>
+        <v>1481</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1455</v>
+        <v>1482</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1456</v>
+        <v>1483</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1457</v>
+        <v>1484</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1458</v>
+        <v>1485</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1459</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="65">
@@ -10600,25 +10827,25 @@
         <v>43983</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1460</v>
+        <v>1487</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1461</v>
+        <v>1488</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1462</v>
+        <v>1489</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1463</v>
+        <v>1490</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1464</v>
+        <v>1491</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1465</v>
+        <v>1492</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1466</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="66">
@@ -10626,25 +10853,25 @@
         <v>43984</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1467</v>
+        <v>1494</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1468</v>
+        <v>1495</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1469</v>
+        <v>1496</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1470</v>
+        <v>1497</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1471</v>
+        <v>1498</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>416</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1472</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="67">
@@ -10652,25 +10879,25 @@
         <v>43985</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1473</v>
+        <v>1500</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1474</v>
+        <v>1501</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1475</v>
+        <v>1502</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1476</v>
+        <v>1503</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1477</v>
+        <v>1504</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1478</v>
+        <v>1505</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1479</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="68">
@@ -10678,25 +10905,25 @@
         <v>43986</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1480</v>
+        <v>1507</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1481</v>
+        <v>1508</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1482</v>
+        <v>1509</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1483</v>
+        <v>1510</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1367</v>
+        <v>1394</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1485</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="69">
@@ -10704,25 +10931,25 @@
         <v>43987</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1486</v>
+        <v>1513</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1487</v>
+        <v>1514</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1488</v>
+        <v>1515</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1489</v>
+        <v>1516</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1490</v>
+        <v>1517</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1491</v>
+        <v>1518</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1492</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="70">
@@ -10730,25 +10957,25 @@
         <v>43990</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1493</v>
+        <v>1520</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1494</v>
+        <v>1521</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1495</v>
+        <v>1522</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1496</v>
+        <v>1523</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1497</v>
+        <v>1524</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1498</v>
+        <v>1525</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>1499</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="71">
@@ -10756,25 +10983,25 @@
         <v>43991</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1500</v>
+        <v>1527</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1501</v>
+        <v>1528</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1502</v>
+        <v>1529</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1503</v>
+        <v>1530</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1504</v>
+        <v>1531</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1195</v>
+        <v>1222</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1505</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="72">
@@ -10782,25 +11009,25 @@
         <v>43992</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1506</v>
+        <v>1533</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1507</v>
+        <v>1534</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1508</v>
+        <v>1535</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1509</v>
+        <v>1536</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1510</v>
+        <v>1537</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1511</v>
+        <v>1538</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1512</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="73">
@@ -10808,25 +11035,25 @@
         <v>43994</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1513</v>
+        <v>1540</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1514</v>
+        <v>1541</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1515</v>
+        <v>1542</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1516</v>
+        <v>1543</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1517</v>
+        <v>1544</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>161</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1518</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="74">
@@ -10834,51 +11061,103 @@
         <v>43997</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1519</v>
+        <v>1546</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1520</v>
+        <v>1547</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1521</v>
+        <v>1548</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1522</v>
+        <v>1549</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1523</v>
+        <v>1550</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1524</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
         <v>43998</v>
       </c>
-      <c r="B75" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G75" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H75" t="s">
-        <v>1531</v>
+      <c r="B75" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1572</v>
       </c>
     </row>
   </sheetData>
